--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722726.3247541038</v>
+        <v>679386.7347313941</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367739</v>
+        <v>6542240.186367736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9324929.679003613</v>
+        <v>9324929.679003615</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>19.98946990210336</v>
       </c>
     </row>
     <row r="3">
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.275751828346028</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>66.44151201253722</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.00738884215856</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>20.64107630343883</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -876,10 +876,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>282.1088227430751</v>
+        <v>9.244894886205774</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813369</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.598484592827427</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>167.125422561458</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>121.7658439708223</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.96140633568214</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>155.7504676865044</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9.792622325432127</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>122.6942204073862</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>351.997310839271</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,19 +1426,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>136.3896895755425</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948286015</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>116.5631275042195</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>225.7508892923954</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.23490948286015</v>
+        <v>103.134041180997</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>34.16966515648334</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>92.47445699814307</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.087853624738041</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>171.7647334826873</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>120.6088074159616</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>228.5394683647122</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>119.2480341124486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>197.0289999663477</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>331.4712643921165</v>
       </c>
       <c r="G23" t="n">
-        <v>100.5205878903137</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>27.77316373215898</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>53.85366032725344</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>20.50139324550856</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.451579104186333</v>
+        <v>154.6268617582982</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>34.8309945668564</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>131.9809553984416</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.49401289627608</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>272.3000367956295</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.23797643592201</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>138.6980411577374</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>91.45636331752937</v>
       </c>
       <c r="G35" t="n">
-        <v>100.5205878903128</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.26879610203962</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>138.6444210303392</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>45.23443023079816</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>247.0916244150719</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>199.3654827743561</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>78.14223821376341</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>328.3712303094057</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>229.7965692041383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>104.2590660175762</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>91.61745183476987</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>248.703709644206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>129.6273546691485</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4330,19 +4330,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791759</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515908</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030609</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358414</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016545</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016545</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344764</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672985</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.6939106867336</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="C3" t="n">
-        <v>188.6939106867336</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D3" t="n">
-        <v>188.6939106867336</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4564556812781</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>29.4564556812781</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,10 +4409,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302311</v>
@@ -4454,7 +4454,7 @@
         <v>188.6939106867336</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.6939106867336</v>
+        <v>121.5812722902314</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.598167514283</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>294.598167514283</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>993.2318949129353</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>786.4448603234467</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="T4" t="n">
-        <v>560.975824081461</v>
+        <v>808.5369117403634</v>
       </c>
       <c r="U4" t="n">
-        <v>294.598167514283</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>294.598167514283</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>294.598167514283</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>294.598167514283</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>294.598167514283</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.7431739632107</v>
+        <v>401.4694126609419</v>
       </c>
       <c r="C5" t="n">
-        <v>703.7847671520237</v>
+        <v>392.1311349981078</v>
       </c>
       <c r="D5" t="n">
-        <v>345.5190685452733</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="E5" t="n">
-        <v>345.5190685452733</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="F5" t="n">
-        <v>345.5190685452733</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452733</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135722</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135722</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818681</v>
+        <v>270.9975490818687</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373966</v>
+        <v>509.5409587373978</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176454</v>
+        <v>806.6359018176474</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.394365921688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="V5" t="n">
-        <v>1362.20893222429</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="W5" t="n">
-        <v>1362.20893222429</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="X5" t="n">
-        <v>988.7431739632107</v>
+        <v>1178.208584700875</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7431739632107</v>
+        <v>788.0692527250637</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.8530236455993</v>
+        <v>391.3407901500323</v>
       </c>
       <c r="C6" t="n">
-        <v>180.3999943644723</v>
+        <v>216.8877608689052</v>
       </c>
       <c r="D6" t="n">
-        <v>180.3999943644723</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644723</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135722</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135722</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135722</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135722</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J6" t="n">
-        <v>123.8804312074459</v>
+        <v>70.03636142348483</v>
       </c>
       <c r="K6" t="n">
-        <v>245.8075604192508</v>
+        <v>453.7840752777429</v>
       </c>
       <c r="L6" t="n">
-        <v>456.0761735419852</v>
+        <v>664.0526884004778</v>
       </c>
       <c r="M6" t="n">
-        <v>720.8065954987258</v>
+        <v>928.7831103572189</v>
       </c>
       <c r="N6" t="n">
-        <v>1006.952288910453</v>
+        <v>1214.928803768947</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.49990008465</v>
+        <v>1454.476414943144</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699118</v>
+        <v>1627.401425557613</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232574</v>
+        <v>1693.078019232579</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S6" t="n">
-        <v>1683.576380585207</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="T6" t="n">
-        <v>1487.970494920546</v>
+        <v>1524.458261424979</v>
       </c>
       <c r="U6" t="n">
-        <v>1259.85428757603</v>
+        <v>1296.342054080463</v>
       </c>
       <c r="V6" t="n">
-        <v>1024.702179344288</v>
+        <v>1061.189945848721</v>
       </c>
       <c r="W6" t="n">
-        <v>770.4648226160859</v>
+        <v>806.952589120519</v>
       </c>
       <c r="X6" t="n">
-        <v>562.6133224105531</v>
+        <v>599.1010889149861</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.8530236455993</v>
+        <v>391.3407901500323</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911.7879826561426</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="C7" t="n">
-        <v>742.8517997282357</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="D7" t="n">
-        <v>592.7351603159</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7393583251704</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135722</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652171</v>
+        <v>36.28512133652195</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128593</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119579</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191526</v>
+        <v>646.3363778191538</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361639</v>
+        <v>895.3159625361653</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397012</v>
+        <v>1178.322155933646</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486382</v>
+        <v>975.8964400230163</v>
       </c>
       <c r="T7" t="n">
-        <v>1093.436447486382</v>
+        <v>975.8964400230163</v>
       </c>
       <c r="U7" t="n">
-        <v>1093.436447486382</v>
+        <v>975.8964400230163</v>
       </c>
       <c r="V7" t="n">
-        <v>1093.436447486382</v>
+        <v>953.7132013001051</v>
       </c>
       <c r="W7" t="n">
-        <v>1093.436447486382</v>
+        <v>664.2960312631444</v>
       </c>
       <c r="X7" t="n">
-        <v>1093.436447486382</v>
+        <v>436.3064803651271</v>
       </c>
       <c r="Y7" t="n">
-        <v>1093.436447486382</v>
+        <v>215.513901221597</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.344648689698</v>
+        <v>845.8055914865827</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.344648689698</v>
+        <v>476.843074546171</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.344648689698</v>
+        <v>476.843074546171</v>
       </c>
       <c r="E8" t="n">
-        <v>619.5563960914535</v>
+        <v>476.843074546171</v>
       </c>
       <c r="F8" t="n">
-        <v>208.5704913018459</v>
+        <v>476.843074546171</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>61.1383242704598</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>61.1383242704598</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.48398066551</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y8" t="n">
-        <v>1005.344648689698</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1019332386098</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -5004,10 +5004,10 @@
         <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>157.1019332386098</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1019332386098</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.208022973022</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1545.706910999614</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1545.706910999614</v>
       </c>
       <c r="E11" t="n">
         <v>1190.154071768027</v>
@@ -5035,58 +5035,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X11" t="n">
-        <v>1934.208022973022</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y11" t="n">
-        <v>1934.208022973022</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621301</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251695</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271522</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271522</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.601034732593</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.638517792182</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F14" t="n">
         <v>481.5845665871869</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,13 +5290,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3097.574620303721</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>2744.805965033606</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X14" t="n">
-        <v>2371.340206772526</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.200874796715</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,19 +5345,19 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
@@ -5378,13 +5378,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8175152271522</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8175152271522</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="D16" t="n">
-        <v>362.8175152271522</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="E16" t="n">
-        <v>362.8175152271522</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8175152271522</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251695</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271522</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271522</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.7821255545682</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>362.8459426266613</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1926.195706043303</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1734.509821870129</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1512.743206439655</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1223.640339565299</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V19" t="n">
-        <v>1223.640339565299</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W19" t="n">
-        <v>934.2231695283381</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X19" t="n">
-        <v>934.2231695283381</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>713.4305903848079</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,25 +5752,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3094.757873766027</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2763.694986422457</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>2410.926331152342</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X20" t="n">
-        <v>2037.460572891262</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y20" t="n">
-        <v>1647.321240915451</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,13 +5819,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,31 +5834,31 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.7821255545682</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C22" t="n">
-        <v>362.8459426266613</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W22" t="n">
-        <v>759.7716764525856</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X22" t="n">
-        <v>531.7821255545682</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.7821255545682</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1734.047335491682</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C23" t="n">
-        <v>1365.08481855127</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D23" t="n">
-        <v>1006.81911994452</v>
+        <v>787.1198280123635</v>
       </c>
       <c r="E23" t="n">
-        <v>621.0308673462755</v>
+        <v>401.3315754141193</v>
       </c>
       <c r="F23" t="n">
-        <v>210.0449625566679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6022,19 +6022,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2884.252265792695</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>2510.786507531615</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>2120.647175555804</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>463.6594280995014</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C25" t="n">
-        <v>294.7232451715945</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>144.6066057592588</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X25" t="n">
-        <v>866.1004720732712</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y25" t="n">
-        <v>645.3078929297411</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1569.101759311879</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C26" t="n">
-        <v>1200.139242371468</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D26" t="n">
-        <v>841.8735437647172</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E26" t="n">
-        <v>841.8735437647172</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2345.840931351813</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1955.701599376001</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W28" t="n">
-        <v>1094.090022971289</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X28" t="n">
-        <v>1094.090022971289</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.090022971289</v>
+        <v>1004.259565728817</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.318139675982</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>3192.291725247109</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W29" t="n">
-        <v>2839.523069976995</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X29" t="n">
-        <v>2466.057311715915</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.917979740103</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.3907139632884</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>392.4545310353815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>392.4545310353815</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>244.5414374529884</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218343</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.821308835076</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>963.8317579370582</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>743.0391787935281</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.181533884357</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C32" t="n">
-        <v>1565.219016943946</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.953318337195</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3050.555279391363</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.786624121249</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>2324.320865860169</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1934.181533884357</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,10 +6797,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.6479724696235</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C34" t="n">
-        <v>452.6479724696235</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>302.5313330572877</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>302.5313330572877</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>155.6413855593774</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>155.6413855593774</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>155.6413855593774</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046014</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676408</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696235</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.6479724696235</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1734.047335491681</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C35" t="n">
-        <v>1365.084818551269</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D35" t="n">
-        <v>1006.819119944519</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="E35" t="n">
-        <v>621.0308673462746</v>
+        <v>871.5483319456212</v>
       </c>
       <c r="F35" t="n">
-        <v>210.044962556667</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W35" t="n">
-        <v>2884.252265792694</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X35" t="n">
-        <v>2510.786507531614</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2120.647175555803</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.8553933260934</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>231.8553933260934</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>231.8553933260934</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676408</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696235</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260934</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2255.174438931364</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1886.211921990953</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1527.946223384202</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1142.157970785958</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>731.1720659963505</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>316.099615841347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X38" t="n">
-        <v>2641.774278995486</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y38" t="n">
-        <v>2641.774278995486</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1633.759572880769</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952862</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>2842.710204663873</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>2553.607337789516</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>2553.607337789516</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>2264.190167752556</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X40" t="n">
-        <v>2036.200616854539</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y40" t="n">
-        <v>1815.408037711009</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1722.044275313594</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1722.044275313594</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.044275313594</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.044275313594</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1887.813801820605</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C44" t="n">
-        <v>1518.851284880194</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D44" t="n">
-        <v>1160.585586273443</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E44" t="n">
-        <v>774.7973336751991</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>774.7973336751991</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>359.7248835201955</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.953133796417</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.813801820605</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="45">
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>591.781102412113</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>591.781102412113</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>441.6644629997772</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>441.6644629997772</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>294.7745155018669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>294.7745155018669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1356.675339798491</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1101.990851592604</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>812.5736815556431</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>812.5736815556431</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>591.781102412113</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157979</v>
+        <v>25.82445471157951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.05511571131501</v>
+        <v>10.6671664345863</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184739</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22600,13 +22600,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>95.47307296480832</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>366.2484687539502</v>
       </c>
     </row>
     <row r="3">
@@ -22634,16 +22634,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>127.7469677580774</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>139.2411837647671</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22725,7 +22725,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>66.49721404150536</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.0780879401549</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,10 +22764,10 @@
         <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>83.1640690279325</v>
+        <v>356.0279968848018</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539885</v>
+        <v>94.01296546539868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -22843,7 +22843,7 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0622605146797</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>26.52440424655649</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>24.66811867574687</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>230.1762369881459</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>255.7972350864496</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>55.91729034703837</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>158.3406588394358</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23199,7 +23199,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>103.0154349816509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>29.93305923299079</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>233.3414111029265</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761681</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23554,7 +23554,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>102.0013691777395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.7908987761681</v>
+        <v>62.89176707803118</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>320.5133764641996</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>277.256643680326</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.84429904530928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.4471047229256</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>173.9989569713589</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>22.4557035941898</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>167.2749642241424</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>21.55565338574712</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>75.40478134959494</v>
       </c>
       <c r="G23" t="n">
-        <v>310.4011377631397</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.4736573664688</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>69.12041821276458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>311.4192314437541</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>386.3746524962029</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.380401077751</v>
+        <v>25.20511842363911</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>319.8520470538265</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>195.7713030716934</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9270351266552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>55.45222167450544</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>8.11444397391611</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>87.01161423129977</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>315.419682424182</v>
       </c>
       <c r="G35" t="n">
-        <v>310.4011377631406</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>128.1651665445295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>147.5674171752737</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>337.4994114326824</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>47.51613997224857</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>20.18346650181309</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>147.5674171752738</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>54.36261135407489</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>97.95568926599657</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>75.50340795433981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>147.8785773062518</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.90405474311444</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>15.12766024517228</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632822.0507685521</v>
+        <v>632822.0507685529</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861031.9629374747</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661097</v>
+        <v>247461.8373661099</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709207</v>
@@ -26343,19 +26343,19 @@
         <v>340997.0989709206</v>
       </c>
       <c r="L2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="N2" t="n">
-        <v>340997.0989709204</v>
-      </c>
       <c r="O2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739483</v>
+        <v>176672.6241739496</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819091</v>
+        <v>223886.3093819077</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171909</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640773</v>
+        <v>41076.98154640797</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946837</v>
+        <v>54988.2912194682</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>12754.4749088174</v>
       </c>
       <c r="C4" t="n">
-        <v>14520.08689902885</v>
+        <v>14520.08689902886</v>
       </c>
       <c r="D4" t="n">
         <v>17379.72927547097</v>
@@ -26429,10 +26429,10 @@
         <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
+        <v>9160.459137079168</v>
+      </c>
+      <c r="G4" t="n">
         <v>9160.459137079153</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
         <v>9160.459137079168</v>
@@ -26447,7 +26447,7 @@
         <v>9160.459137079168</v>
       </c>
       <c r="L4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="M4" t="n">
         <v>9160.459137079168</v>
@@ -26472,19 +26472,19 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.87167923113</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26502,7 +26502,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551923.6775071643</v>
+        <v>-562251.3926939158</v>
       </c>
       <c r="C6" t="n">
-        <v>-19477.74538609848</v>
+        <v>-27630.69776440125</v>
       </c>
       <c r="D6" t="n">
-        <v>-28232.18060291618</v>
+        <v>-33459.6433248063</v>
       </c>
       <c r="E6" t="n">
-        <v>75457.31945525738</v>
+        <v>71981.1301571965</v>
       </c>
       <c r="F6" t="n">
-        <v>257530.2992724482</v>
+        <v>254054.109974387</v>
       </c>
       <c r="G6" t="n">
-        <v>257530.2992724482</v>
+        <v>254054.1099743872</v>
       </c>
       <c r="H6" t="n">
-        <v>257530.299272448</v>
+        <v>254054.1099743872</v>
       </c>
       <c r="I6" t="n">
-        <v>257530.2992724481</v>
+        <v>254054.109974387</v>
       </c>
       <c r="J6" t="n">
-        <v>188531.1448533342</v>
+        <v>185054.955555273</v>
       </c>
       <c r="K6" t="n">
-        <v>216453.3177260404</v>
+        <v>212977.1284279791</v>
       </c>
       <c r="L6" t="n">
-        <v>202542.0080529799</v>
+        <v>199065.8187549187</v>
       </c>
       <c r="M6" t="n">
-        <v>209978.0334790332</v>
+        <v>206501.8441809722</v>
       </c>
       <c r="N6" t="n">
-        <v>257530.2992724479</v>
+        <v>254054.1099743871</v>
       </c>
       <c r="O6" t="n">
-        <v>257530.2992724482</v>
+        <v>254054.109974387</v>
       </c>
       <c r="P6" t="n">
-        <v>257530.2992724482</v>
+        <v>254054.1099743871</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908047</v>
+        <v>751.4467899908059</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="G3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919653</v>
+        <v>423.3179548919665</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
@@ -26813,7 +26813,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
@@ -26822,13 +26822,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26962,19 +26962,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213264</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267345</v>
+        <v>182.6181021267333</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,37 +27014,37 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="E4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015063</v>
+      </c>
+      <c r="K4" t="n">
+        <v>159.6040748904603</v>
+      </c>
+      <c r="L4" t="n">
+        <v>217.2668772080722</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022541</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>159.6040748904593</v>
-      </c>
-      <c r="L4" t="n">
-        <v>217.2668772080735</v>
-      </c>
-      <c r="M4" t="n">
-        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053484</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339025</v>
+        <v>30.9377062833903</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677671</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599712</v>
+        <v>384.2687421599718</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159756</v>
+        <v>476.7193540159763</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285343</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383288</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113094</v>
+        <v>508.9862526113101</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906139</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190734</v>
+        <v>326.2223097190739</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025523</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639384</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.6495971832813</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876867</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449886</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034573</v>
+        <v>420.3777660345736</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587848</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.6461353077331</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633072</v>
+        <v>30.02242599633076</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807069</v>
+        <v>6.514901886807078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720627</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390964</v>
+        <v>95.80330632390978</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029915</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706794</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843474</v>
+        <v>60.92878398843483</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544872</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879969</v>
+        <v>5.789835922879978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548907</v>
+        <v>0.07391279901548918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108084</v>
+        <v>75.34849544108124</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149906</v>
+        <v>164.1788911149912</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459884</v>
+        <v>240.9529390459891</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012616</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417379</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896226</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353444</v>
+        <v>203.174995035345</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446239</v>
+        <v>103.9166198446244</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90.9242371879684</v>
+        <v>36.53628791123992</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755605</v>
+        <v>387.6239533881395</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078126</v>
+        <v>212.3925385078131</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229702</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512396</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143404</v>
+        <v>241.9672840143409</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934024</v>
+        <v>174.6717278934029</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469255</v>
+        <v>66.33999361107675</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144307999</v>
+        <v>0.195757914430942</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236863</v>
+        <v>2.444126207237005</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768673</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.99694253252</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628435</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691713</v>
+        <v>27.3064220369173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35263,16 +35263,16 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420062</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>245.9137357376033</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977092</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679386.7347313941</v>
+        <v>716857.9210769547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367736</v>
+        <v>6542240.186367735</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.98946990210336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>145.9992531132335</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.44151201253722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>20.64107630343883</v>
+        <v>5.568877204557011</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.244894886205774</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>87.36309070394083</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>18.91365064078964</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813369</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>167.125422561458</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>145.941454943756</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>21.96140633568214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>211.0351428921045</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>9.792622325432127</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>8.90616225919203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.86922251638167</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>248.7037096442065</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>351.997310839271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>19.68942351146712</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>116.5631275042195</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>103.134041180997</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>5.348319023253832</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>34.16966515648334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>374.3983094099661</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>2.269068682538087</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>171.7647334826873</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>120.6088074159616</v>
+        <v>46.36893455027494</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.0289999663477</v>
+        <v>160.040379087079</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>331.4712643921165</v>
+        <v>212.0572690432712</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>27.77316373215898</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>53.85366032725344</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>331.4985737664933</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.6268617582982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4025801238263</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>34.8309945668564</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>275.9285499140929</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>110.7115619691723</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>120.6088074159611</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>57.92518451681134</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0.4218205161270808</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>138.6980411577374</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8544819726752</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>91.45636331752937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>18.26879610204006</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>138.6444210303392</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>45.23443023079816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>78.14223821376341</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640758</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.3712303094057</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>42.34070507092609</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>104.2590660175762</v>
+        <v>226.9325249001886</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>91.61745183476987</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>247.0916244150716</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>87.05433370913495</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672985</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672985</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672985</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672985</v>
+        <v>820.2300801016547</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4333,19 +4333,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739748</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739748</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>307.6661507067968</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.4747669672985</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,52 +4409,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U3" t="n">
-        <v>678.083375646678</v>
+        <v>611.5747118810663</v>
       </c>
       <c r="V3" t="n">
-        <v>442.9312674149352</v>
+        <v>376.4226036493235</v>
       </c>
       <c r="W3" t="n">
-        <v>188.6939106867336</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X3" t="n">
-        <v>188.6939106867336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1034.005947982349</v>
+        <v>1049.230391516573</v>
       </c>
       <c r="T4" t="n">
-        <v>808.5369117403634</v>
+        <v>823.7613552745878</v>
       </c>
       <c r="U4" t="n">
-        <v>542.1592551731853</v>
+        <v>557.3836987074097</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672985</v>
+        <v>302.6992105015229</v>
       </c>
       <c r="W4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="X4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.4694126609419</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="C5" t="n">
-        <v>392.1311349981078</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135731</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135731</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135731</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780275</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818687</v>
+        <v>270.9975490818686</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373978</v>
+        <v>509.5409587373977</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176474</v>
+        <v>806.6359018176465</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058969</v>
+        <v>1113.151960058967</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836696</v>
+        <v>1389.251120836694</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921688</v>
+        <v>1590.394365921685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961955</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961955</v>
+        <v>1339.682528309324</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961955</v>
+        <v>1339.682528309324</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961955</v>
+        <v>1339.682528309324</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961955</v>
+        <v>1339.682528309324</v>
       </c>
       <c r="X5" t="n">
-        <v>1178.208584700875</v>
+        <v>1251.436982143728</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.0692527250637</v>
+        <v>861.2976501679159</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.3407901500323</v>
+        <v>535.5950279561503</v>
       </c>
       <c r="C6" t="n">
-        <v>216.8877608689052</v>
+        <v>361.1419986750233</v>
       </c>
       <c r="D6" t="n">
-        <v>67.95335120765398</v>
+        <v>212.207589013772</v>
       </c>
       <c r="E6" t="n">
-        <v>67.95335120765398</v>
+        <v>52.97013400831651</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765398</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765398</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J6" t="n">
-        <v>70.03636142348483</v>
+        <v>59.47586665324427</v>
       </c>
       <c r="K6" t="n">
-        <v>453.7840752777429</v>
+        <v>443.2235805075022</v>
       </c>
       <c r="L6" t="n">
-        <v>664.0526884004778</v>
+        <v>653.4921936302369</v>
       </c>
       <c r="M6" t="n">
-        <v>928.7831103572189</v>
+        <v>918.2226155869778</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768947</v>
+        <v>1204.368308998705</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943144</v>
+        <v>1454.476414943142</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557613</v>
+        <v>1627.401425557611</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232579</v>
+        <v>1693.078019232577</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567866</v>
+        <v>1550.180157843109</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.458261424979</v>
+        <v>1354.574272178448</v>
       </c>
       <c r="U6" t="n">
-        <v>1296.342054080463</v>
+        <v>1354.574272178448</v>
       </c>
       <c r="V6" t="n">
-        <v>1061.189945848721</v>
+        <v>1119.422163946705</v>
       </c>
       <c r="W6" t="n">
-        <v>806.952589120519</v>
+        <v>1119.422163946705</v>
       </c>
       <c r="X6" t="n">
-        <v>599.1010889149861</v>
+        <v>911.5706637411722</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.3407901500323</v>
+        <v>703.8103649762184</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135731</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135731</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135731</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135731</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135731</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652195</v>
+        <v>36.28512133652185</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191538</v>
+        <v>646.3363778191533</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361653</v>
+        <v>895.3159625361648</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
@@ -4749,28 +4749,28 @@
         <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933646</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230163</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="T7" t="n">
-        <v>975.8964400230163</v>
+        <v>1148.446552342715</v>
       </c>
       <c r="U7" t="n">
-        <v>975.8964400230163</v>
+        <v>859.3100709715272</v>
       </c>
       <c r="V7" t="n">
-        <v>953.7132013001051</v>
+        <v>604.6255827656404</v>
       </c>
       <c r="W7" t="n">
-        <v>664.2960312631444</v>
+        <v>604.6255827656404</v>
       </c>
       <c r="X7" t="n">
-        <v>436.3064803651271</v>
+        <v>604.6255827656404</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.513901221597</v>
+        <v>383.8330036221103</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>845.8055914865827</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="C8" t="n">
-        <v>476.843074546171</v>
+        <v>1342.44319045502</v>
       </c>
       <c r="D8" t="n">
-        <v>476.843074546171</v>
+        <v>984.1774918482697</v>
       </c>
       <c r="E8" t="n">
-        <v>476.843074546171</v>
+        <v>984.1774918482697</v>
       </c>
       <c r="F8" t="n">
-        <v>476.843074546171</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>61.1383242704598</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>61.1383242704598</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526516</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.405431550704</v>
+        <v>1711.405707395432</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145207</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.24291006213647</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4992,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>281.0354892056666</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.24291006213647</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1914.669427940026</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.706910999614</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1545.706910999614</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5053,16 +5053,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2678.274518176917</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2304.808759915838</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y11" t="n">
-        <v>1914.669427940026</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5244,7 +5244,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.341567565138</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.379050624727</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>985.1133520179762</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>599.3250994197319</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.94140762926</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.6240985328146</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C16" t="n">
-        <v>170.6879156049077</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D16" t="n">
-        <v>170.6879156049077</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>170.6879156049077</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>170.6879156049077</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5475,13 +5475,13 @@
         <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>970.0546934046018</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>742.0651425065845</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="Y16" t="n">
-        <v>521.2725633630544</v>
+        <v>675.2351809199101</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1681.836054204828</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C17" t="n">
-        <v>1312.873537264416</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1287.54982846108</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>901.7615758628356</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2071.975386180639</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1681.836054204828</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="D19" t="n">
         <v>529.0179941377679</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1250.51186045178</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.51186045178</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.51186045178</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1712.341567565138</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C20" t="n">
-        <v>1343.379050624727</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D20" t="n">
-        <v>985.1133520179762</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="E20" t="n">
-        <v>599.3250994197319</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="F20" t="n">
-        <v>188.3391946301244</v>
+        <v>528.4218742137273</v>
       </c>
       <c r="G20" t="n">
-        <v>188.3391946301244</v>
+        <v>113.3494240587237</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W20" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y20" t="n">
-        <v>2098.94140762926</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,34 +5837,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385.5649387724261</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C22" t="n">
-        <v>216.6287558445192</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.675339798491</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.990851592604</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>812.5736815556431</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>584.5841306576258</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y22" t="n">
-        <v>385.5649387724261</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1514.348043559526</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="C23" t="n">
-        <v>1145.385526619114</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D23" t="n">
-        <v>787.1198280123635</v>
+        <v>1081.572080845301</v>
       </c>
       <c r="E23" t="n">
-        <v>401.3315754141193</v>
+        <v>695.7838282470568</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796417</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535337</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y23" t="n">
-        <v>1514.348043559526</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.1586012949293</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>590.8070661251691</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>590.8070661251691</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796265</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C26" t="n">
-        <v>867.3728191854311</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="D26" t="n">
-        <v>867.3728191854311</v>
+        <v>1495.716918419847</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1109.928665821603</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>698.9427610319954</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1837.464090846021</v>
+        <v>1707.69598230685</v>
       </c>
       <c r="U28" t="n">
-        <v>1548.361223971664</v>
+        <v>1418.593115432493</v>
       </c>
       <c r="V28" t="n">
-        <v>1293.676735765777</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="W28" t="n">
-        <v>1004.259565728817</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X28" t="n">
-        <v>1004.259565728817</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y28" t="n">
-        <v>1004.259565728817</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1569.10175931188</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C29" t="n">
-        <v>1200.139242371469</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D29" t="n">
-        <v>1164.956419576664</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
         <v>779.1681669784198</v>
@@ -6457,58 +6457,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2719.306689612893</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X29" t="n">
-        <v>2345.840931351814</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="Y29" t="n">
-        <v>1955.701599376002</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="30">
@@ -6536,19 +6536,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>645.3078929297407</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>476.3717100018338</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>326.255070589498</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>178.3419770071049</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565138</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624726</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D32" t="n">
-        <v>985.1133520179758</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E32" t="n">
-        <v>599.3250994197315</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F32" t="n">
-        <v>188.3391946301239</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
         <v>66.51211643218342</v>
@@ -6700,10 +6700,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6718,7 +6718,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866151</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605071</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.94140762926</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.4317969248226</v>
+        <v>532.8809675997577</v>
       </c>
       <c r="C34" t="n">
-        <v>511.4317969248226</v>
+        <v>363.9447846718508</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124869</v>
+        <v>213.8281452595151</v>
       </c>
       <c r="E34" t="n">
         <v>213.4020639300938</v>
@@ -6858,16 +6858,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X34" t="n">
-        <v>732.2243760683527</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="Y34" t="n">
-        <v>511.4317969248226</v>
+        <v>714.5294324299974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.299101484277</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1257.336584543865</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1257.336584543865</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5483319456212</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,31 +6958,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W35" t="n">
-        <v>2403.038273524211</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X35" t="n">
-        <v>2403.038273524211</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y35" t="n">
-        <v>2012.898941548399</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1565.483062930404</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1310.798574724517</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.278283189674</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y38" t="n">
-        <v>2051.278283189674</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>1161.740577577775</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X40" t="n">
-        <v>1082.809023826499</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7429,7 +7429,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7444,19 +7444,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653544</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.800296392465</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7569,16 +7569,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.527932658019</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>1600.215744761477</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.798574724517</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1712.341567565138</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.379050624727</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>985.1133520179762</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
         <v>892.5704713767946</v>
@@ -7648,13 +7648,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.546497866152</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.080739605072</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y44" t="n">
-        <v>2098.94140762926</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>301.3357343433614</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>301.3357343433614</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>651.920382101508</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157951</v>
+        <v>25.82445471157962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.6671664345863</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>10.66716643458562</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566602</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.4330134067487</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669352</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4797526277618</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22600,22 +22600,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.2484687539502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22643,7 +22643,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>105.6957300476861</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.2411837647671</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,7 +22728,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>184.0780879401549</v>
+        <v>199.1502870390368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>356.0279968848018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539868</v>
+        <v>94.01296546539875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>282.3680099745282</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>126.1555617525942</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26.52440424655649</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>76.21429856164551</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1762369881459</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>195.8409028496069</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>55.91729034703837</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3406588394358</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.5647401301875</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>134.0301320192741</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.93305923299079</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>290.3129182374919</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>62.89176707803118</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>220.3613363657833</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>320.5133764641996</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>32.47773633174529</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.3464043356743</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.4471047229256</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>173.9989569713589</v>
+        <v>248.2388298370455</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.55565338574712</v>
+        <v>58.54427426501579</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>75.40478134959494</v>
+        <v>194.8187766984403</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.4736573664688</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>311.4192314437541</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>79.42315188696011</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.20511842363911</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>2.146369152342913</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>319.8520470538265</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>106.0018201581689</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>34.70948605375895</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>290.3129182374923</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.26257727136451</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.0121421304421</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>87.01161423129977</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>82.87935969080536</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>315.419682424182</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>147.5674171752737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>337.4994114326824</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>147.5674171752738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.8576191056872</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.36261135407489</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>285.4115533992088</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8785773062518</v>
+        <v>25.20511842363939</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>290.3129182374919</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>3.903547543830399</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>59.37962893743422</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>522442.2480109889</v>
+        <v>522442.2480109888</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632822.0507685529</v>
+        <v>632822.0507685525</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781786.9902474432</v>
+        <v>781786.9902474431</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374741</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661099</v>
+        <v>247461.8373661098</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943088</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709206</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="N2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="O2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739496</v>
+        <v>176672.624173949</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819077</v>
+        <v>223886.3093819083</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171906</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640797</v>
+        <v>41076.98154640774</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194682</v>
+        <v>54988.29121946848</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12754.4749088174</v>
+        <v>12754.47490881741</v>
       </c>
       <c r="C4" t="n">
-        <v>14520.08689902886</v>
+        <v>14520.08689902885</v>
       </c>
       <c r="D4" t="n">
         <v>17379.72927547097</v>
@@ -26432,7 +26432,7 @@
         <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9160.459137079153</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
         <v>9160.459137079168</v>
@@ -26444,7 +26444,7 @@
         <v>9160.459137079168</v>
       </c>
       <c r="K4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="L4" t="n">
         <v>9160.459137079168</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923113</v>
+        <v>75746.87167923107</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,19 +26484,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26505,7 +26505,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562251.3926939158</v>
+        <v>-552956.4490258395</v>
       </c>
       <c r="C6" t="n">
-        <v>-27630.69776440125</v>
+        <v>-20293.04062392929</v>
       </c>
       <c r="D6" t="n">
-        <v>-33459.6433248063</v>
+        <v>-28754.92687510453</v>
       </c>
       <c r="E6" t="n">
-        <v>71981.1301571965</v>
+        <v>75109.70052545145</v>
       </c>
       <c r="F6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426421</v>
       </c>
       <c r="G6" t="n">
-        <v>254054.1099743872</v>
+        <v>257182.6803426421</v>
       </c>
       <c r="H6" t="n">
-        <v>254054.1099743872</v>
+        <v>257182.680342642</v>
       </c>
       <c r="I6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426423</v>
       </c>
       <c r="J6" t="n">
-        <v>185054.955555273</v>
+        <v>188183.525923528</v>
       </c>
       <c r="K6" t="n">
-        <v>212977.1284279791</v>
+        <v>216105.6987962341</v>
       </c>
       <c r="L6" t="n">
-        <v>199065.8187549187</v>
+        <v>202194.3891231734</v>
       </c>
       <c r="M6" t="n">
-        <v>206501.8441809722</v>
+        <v>209630.414549227</v>
       </c>
       <c r="N6" t="n">
-        <v>254054.1099743871</v>
+        <v>257182.6803426422</v>
       </c>
       <c r="O6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426421</v>
       </c>
       <c r="P6" t="n">
-        <v>254054.1099743871</v>
+        <v>257182.6803426418</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908059</v>
+        <v>751.4467899908054</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919665</v>
+        <v>423.3179548919659</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213271</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267333</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26974,34 +26974,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904603</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022539</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904603</v>
+        <v>159.6040748904593</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.2668772080733</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904603</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022539</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9377062833903</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599718</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159763</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285347</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.0252436383292</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113101</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190739</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328135</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345736</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077331</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633076</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807078</v>
+        <v>6.514901886807075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390978</v>
+        <v>95.80330632390972</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843483</v>
+        <v>60.92878398843479</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879978</v>
+        <v>5.789835922879974</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548918</v>
+        <v>0.07391279901548914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563555</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108124</v>
+        <v>75.34849544108107</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149912</v>
+        <v>164.178891114991</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459891</v>
+        <v>240.9529390459888</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.095902101262</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417383</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.8880411896231</v>
       </c>
       <c r="P5" t="n">
-        <v>203.174995035345</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446244</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.53628791123992</v>
+        <v>25.86912147665353</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881395</v>
+        <v>387.6239533881393</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>289.03605395124</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143409</v>
+        <v>252.6344504489263</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934029</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107675</v>
+        <v>66.33999361107664</v>
       </c>
       <c r="R6" t="n">
-        <v>0.195757914430942</v>
+        <v>0.1957579144308852</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237005</v>
+        <v>2.444126207236948</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369173</v>
+        <v>27.30642203691723</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065834</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35263,7 +35263,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.9137357376033</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
